--- a/src/src1/assets/Customer_Format.xlsx
+++ b/src/src1/assets/Customer_Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khashaa\Projects\MASU\Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zulaa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF18845-A352-4B56-A726-5564E0CB2EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DAA21F-728D-A94C-89AF-8CE64CB6BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="4740" windowWidth="18165" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="4740" windowWidth="18160" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>test aba</t>
   </si>
@@ -58,13 +58,16 @@
   </si>
   <si>
     <t>tailbar</t>
+  </si>
+  <si>
+    <t>Авлага</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +83,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,13 +139,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,23 +428,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -440,14 +457,17 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -460,10 +480,13 @@
       <c r="D2" s="3">
         <v>11111111</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/src1/assets/Customer_Format.xlsx
+++ b/src/src1/assets/Customer_Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zulaa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DAA21F-728D-A94C-89AF-8CE64CB6BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F62C9-5E15-2742-829F-942BCDB29E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="4740" windowWidth="18160" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,15 +83,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,12 +94,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,14 +126,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,7 +417,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -439,9 +425,10 @@
     <col min="1" max="1" width="23.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -457,14 +444,14 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -480,14 +467,14 @@
       <c r="D2" s="3">
         <v>11111111</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
         <v>100000</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
